--- a/data/euro-ccp/euro-ccp-Q2-2016.xlsx
+++ b/data/euro-ccp/euro-ccp-Q2-2016.xlsx
@@ -612,10 +612,10 @@
         <v>30313530</v>
       </c>
       <c r="R2" t="n">
-        <v>236487798</v>
+        <v>239794537</v>
       </c>
       <c r="S2" t="n">
-        <v>1043910600</v>
+        <v>1047217339</v>
       </c>
       <c r="T2" t="n">
         <v>1836192948</v>
